--- a/Data/Data_List_A2.xlsx
+++ b/Data/Data_List_A2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="405">
   <si>
     <t>■ 역대 박스오피스 (공식통계 기준)</t>
   </si>
@@ -1257,10 +1257,6 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>영화</t>
-    <phoneticPr fontId="26" type="noConversion"/>
-  </si>
-  <si>
     <t>액션</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
@@ -1397,8 +1393,28 @@
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
   <si>
-    <t>뫃머</t>
+    <t>액션</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>모험</t>
     <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>어린이</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>드라마</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>코미디</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>스릴러</t>
+    <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1841,7 +1857,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2095,6 +2111,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2224,7 +2251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2251,6 +2278,18 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2285,17 +2324,8 @@
     <xf numFmtId="0" fontId="23" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2618,10 +2648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N206"/>
+  <dimension ref="A1:O206"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2637,136 +2667,136 @@
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="9" style="23"/>
+    <col min="12" max="14" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+    </row>
+    <row r="5" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="17"/>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="21"/>
+      <c r="I5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="18" t="s">
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+    </row>
+    <row r="6" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="19"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="23"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -2796,15 +2826,18 @@
       <c r="K7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="10" t="s">
         <v>315</v>
       </c>
       <c r="M7" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" s="22"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N7" s="11"/>
+      <c r="O7" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2840,9 +2873,12 @@
       <c r="M8" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="N8" s="22"/>
-    </row>
-    <row r="9" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="11"/>
+      <c r="O8" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -2878,9 +2914,12 @@
       <c r="M9" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="N9" s="22"/>
-    </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N9" s="11"/>
+      <c r="O9" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -2916,9 +2955,12 @@
       <c r="M10" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N10" s="22"/>
-    </row>
-    <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -2954,9 +2996,12 @@
       <c r="M11" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="N11" s="22"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N11" s="11"/>
+      <c r="O11" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6</v>
       </c>
@@ -2992,9 +3037,12 @@
       <c r="M12" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="N12" s="22"/>
-    </row>
-    <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="11"/>
+      <c r="O12" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>7</v>
       </c>
@@ -3030,9 +3078,12 @@
       <c r="M13" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N13" s="22"/>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="11"/>
+      <c r="O13" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>8</v>
       </c>
@@ -3068,9 +3119,12 @@
       <c r="M14" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="N14" s="22"/>
-    </row>
-    <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="11"/>
+      <c r="O14" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>9</v>
       </c>
@@ -3108,9 +3162,12 @@
       <c r="M15" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="N15" s="22"/>
-    </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N15" s="11"/>
+      <c r="O15" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>10</v>
       </c>
@@ -3146,9 +3203,12 @@
       <c r="M16" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="N16" s="22"/>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N16" s="11"/>
+      <c r="O16" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>11</v>
       </c>
@@ -3184,9 +3244,12 @@
       <c r="M17" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="N17" s="22"/>
-    </row>
-    <row r="18" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N17" s="11"/>
+      <c r="O17" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -3222,9 +3285,12 @@
       <c r="M18" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N18" s="22"/>
-    </row>
-    <row r="19" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="11"/>
+      <c r="O18" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>13</v>
       </c>
@@ -3260,9 +3326,12 @@
       <c r="M19" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="N19" s="22"/>
-    </row>
-    <row r="20" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N19" s="11"/>
+      <c r="O19" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>14</v>
       </c>
@@ -3296,9 +3365,12 @@
         <v>330</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="N20" s="22"/>
-    </row>
-    <row r="21" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N20" s="11"/>
+      <c r="O20" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>15</v>
       </c>
@@ -3336,9 +3408,12 @@
       <c r="M21" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="N21" s="22"/>
-    </row>
-    <row r="22" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="11"/>
+      <c r="O21" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -3374,9 +3449,12 @@
       <c r="M22" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="N22" s="22"/>
-    </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N22" s="11"/>
+      <c r="O22" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>17</v>
       </c>
@@ -3412,9 +3490,12 @@
       <c r="M23" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N23" s="22"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N23" s="11"/>
+      <c r="O23" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>18</v>
       </c>
@@ -3452,9 +3533,12 @@
       <c r="M24" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="N24" s="22"/>
-    </row>
-    <row r="25" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N24" s="11"/>
+      <c r="O24" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>19</v>
       </c>
@@ -3490,9 +3574,12 @@
       <c r="M25" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="N25" s="22"/>
-    </row>
-    <row r="26" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N25" s="11"/>
+      <c r="O25" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>20</v>
       </c>
@@ -3528,9 +3615,12 @@
       <c r="M26" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="N26" s="22"/>
-    </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="11"/>
+      <c r="O26" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>21</v>
       </c>
@@ -3564,9 +3654,12 @@
         <v>330</v>
       </c>
       <c r="M27" s="7"/>
-      <c r="N27" s="22"/>
-    </row>
-    <row r="28" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="11"/>
+      <c r="O27" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>22</v>
       </c>
@@ -3602,9 +3695,12 @@
       <c r="M28" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="N28" s="22"/>
-    </row>
-    <row r="29" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N28" s="11"/>
+      <c r="O28" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>23</v>
       </c>
@@ -3642,9 +3738,12 @@
       <c r="M29" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="N29" s="22"/>
-    </row>
-    <row r="30" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N29" s="11"/>
+      <c r="O29" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>24</v>
       </c>
@@ -3680,9 +3779,12 @@
       <c r="M30" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N30" s="22"/>
-    </row>
-    <row r="31" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N30" s="11"/>
+      <c r="O30" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>25</v>
       </c>
@@ -3718,9 +3820,12 @@
       <c r="M31" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="N31" s="22"/>
-    </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="11"/>
+      <c r="O31" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>26</v>
       </c>
@@ -3756,9 +3861,12 @@
       <c r="M32" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="N32" s="22"/>
-    </row>
-    <row r="33" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N32" s="11"/>
+      <c r="O32" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>27</v>
       </c>
@@ -3794,9 +3902,12 @@
       <c r="M33" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N33" s="22"/>
-    </row>
-    <row r="34" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="11"/>
+      <c r="O33" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>28</v>
       </c>
@@ -3832,9 +3943,12 @@
       <c r="M34" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N34" s="22"/>
-    </row>
-    <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N34" s="11"/>
+      <c r="O34" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>29</v>
       </c>
@@ -3870,9 +3984,12 @@
       <c r="M35" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="N35" s="22"/>
-    </row>
-    <row r="36" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="11"/>
+      <c r="O35" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>30</v>
       </c>
@@ -3908,9 +4025,12 @@
       <c r="M36" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="N36" s="22"/>
-    </row>
-    <row r="37" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="11"/>
+      <c r="O36" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>31</v>
       </c>
@@ -3946,9 +4066,12 @@
       <c r="M37" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="N37" s="22"/>
-    </row>
-    <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="11"/>
+      <c r="O37" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>32</v>
       </c>
@@ -3984,9 +4107,12 @@
       <c r="M38" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="N38" s="22"/>
-    </row>
-    <row r="39" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N38" s="11"/>
+      <c r="O38" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>33</v>
       </c>
@@ -4022,9 +4148,12 @@
       <c r="M39" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="N39" s="22"/>
-    </row>
-    <row r="40" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="11"/>
+      <c r="O39" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>34</v>
       </c>
@@ -4060,9 +4189,12 @@
       <c r="M40" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N40" s="22"/>
-    </row>
-    <row r="41" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="11"/>
+      <c r="O40" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>35</v>
       </c>
@@ -4098,9 +4230,12 @@
       <c r="M41" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="N41" s="22"/>
-    </row>
-    <row r="42" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="11"/>
+      <c r="O41" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>36</v>
       </c>
@@ -4136,9 +4271,12 @@
       <c r="M42" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="N42" s="22"/>
-    </row>
-    <row r="43" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N42" s="11"/>
+      <c r="O42" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>37</v>
       </c>
@@ -4174,9 +4312,12 @@
       <c r="M43" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N43" s="22"/>
-    </row>
-    <row r="44" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N43" s="11"/>
+      <c r="O43" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>38</v>
       </c>
@@ -4214,9 +4355,12 @@
       <c r="M44" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="N44" s="22"/>
-    </row>
-    <row r="45" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N44" s="11"/>
+      <c r="O44" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>39</v>
       </c>
@@ -4252,9 +4396,12 @@
       <c r="M45" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="N45" s="22"/>
-    </row>
-    <row r="46" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N45" s="11"/>
+      <c r="O45" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>40</v>
       </c>
@@ -4290,9 +4437,12 @@
       <c r="M46" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N46" s="22"/>
-    </row>
-    <row r="47" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N46" s="11"/>
+      <c r="O46" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>41</v>
       </c>
@@ -4328,9 +4478,12 @@
       <c r="M47" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N47" s="22"/>
-    </row>
-    <row r="48" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N47" s="11"/>
+      <c r="O47" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>42</v>
       </c>
@@ -4368,9 +4521,12 @@
       <c r="M48" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N48" s="22"/>
-    </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N48" s="11"/>
+      <c r="O48" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43</v>
       </c>
@@ -4406,9 +4562,12 @@
       <c r="M49" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="N49" s="22"/>
-    </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N49" s="11"/>
+      <c r="O49" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44</v>
       </c>
@@ -4441,10 +4600,13 @@
       <c r="L50" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="M50" s="20"/>
-      <c r="N50" s="22"/>
-    </row>
-    <row r="51" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M50" s="9"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>45</v>
       </c>
@@ -4480,9 +4642,12 @@
       <c r="M51" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N51" s="22"/>
-    </row>
-    <row r="52" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N51" s="11"/>
+      <c r="O51" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>46</v>
       </c>
@@ -4518,9 +4683,12 @@
       <c r="M52" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="N52" s="22"/>
-    </row>
-    <row r="53" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N52" s="11"/>
+      <c r="O52" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>47</v>
       </c>
@@ -4556,9 +4724,12 @@
       <c r="M53" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="N53" s="22"/>
-    </row>
-    <row r="54" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N53" s="11"/>
+      <c r="O53" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>48</v>
       </c>
@@ -4594,9 +4765,12 @@
       <c r="M54" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="N54" s="22"/>
-    </row>
-    <row r="55" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N54" s="11"/>
+      <c r="O54" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>49</v>
       </c>
@@ -4634,9 +4808,12 @@
       <c r="M55" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="N55" s="22"/>
-    </row>
-    <row r="56" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N55" s="11"/>
+      <c r="O55" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>50</v>
       </c>
@@ -4672,9 +4849,12 @@
       <c r="M56" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="N56" s="22"/>
-    </row>
-    <row r="57" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N56" s="11"/>
+      <c r="O56" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>51</v>
       </c>
@@ -4706,13 +4886,16 @@
       <c r="K57" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L57" s="22" t="s">
+      <c r="L57" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-    </row>
-    <row r="58" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>52</v>
       </c>
@@ -4748,9 +4931,12 @@
       <c r="M58" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="N58" s="22"/>
-    </row>
-    <row r="59" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N58" s="11"/>
+      <c r="O58" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>53</v>
       </c>
@@ -4789,8 +4975,11 @@
       <c r="N59" s="8" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O59" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>54</v>
       </c>
@@ -4826,9 +5015,12 @@
       <c r="M60" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="N60" s="22"/>
-    </row>
-    <row r="61" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N60" s="11"/>
+      <c r="O60" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>55</v>
       </c>
@@ -4864,9 +5056,12 @@
       <c r="M61" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="N61" s="22"/>
-    </row>
-    <row r="62" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N61" s="11"/>
+      <c r="O61" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>56</v>
       </c>
@@ -4902,9 +5097,12 @@
       <c r="M62" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="N62" s="22"/>
-    </row>
-    <row r="63" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N62" s="11"/>
+      <c r="O62" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>57</v>
       </c>
@@ -4940,9 +5138,12 @@
       <c r="M63" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="N63" s="22"/>
-    </row>
-    <row r="64" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N63" s="11"/>
+      <c r="O63" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>58</v>
       </c>
@@ -4978,9 +5179,12 @@
       <c r="M64" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="N64" s="22"/>
-    </row>
-    <row r="65" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N64" s="11"/>
+      <c r="O64" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>59</v>
       </c>
@@ -5016,9 +5220,12 @@
       <c r="M65" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="N65" s="22"/>
-    </row>
-    <row r="66" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N65" s="11"/>
+      <c r="O65" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>60</v>
       </c>
@@ -5054,9 +5261,12 @@
       <c r="M66" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="N66" s="22"/>
-    </row>
-    <row r="67" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N66" s="11"/>
+      <c r="O66" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>61</v>
       </c>
@@ -5092,9 +5302,12 @@
       <c r="M67" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="N67" s="22"/>
-    </row>
-    <row r="68" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N67" s="11"/>
+      <c r="O67" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>62</v>
       </c>
@@ -5130,9 +5343,12 @@
       <c r="M68" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="N68" s="22"/>
-    </row>
-    <row r="69" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N68" s="11"/>
+      <c r="O68" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>63</v>
       </c>
@@ -5170,9 +5386,12 @@
       <c r="M69" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="N69" s="22"/>
-    </row>
-    <row r="70" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N69" s="11"/>
+      <c r="O69" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>64</v>
       </c>
@@ -5208,9 +5427,12 @@
       <c r="M70" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="N70" s="22"/>
-    </row>
-    <row r="71" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N70" s="11"/>
+      <c r="O70" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>65</v>
       </c>
@@ -5246,9 +5468,12 @@
       <c r="M71" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="N71" s="22"/>
-    </row>
-    <row r="72" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N71" s="11"/>
+      <c r="O71" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>66</v>
       </c>
@@ -5284,11 +5509,14 @@
         <v>355</v>
       </c>
       <c r="M72" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="N72" s="22"/>
-    </row>
-    <row r="73" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+      <c r="N72" s="11"/>
+      <c r="O72" s="8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>67</v>
       </c>
@@ -5324,9 +5552,12 @@
       <c r="M73" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="N73" s="22"/>
-    </row>
-    <row r="74" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N73" s="11"/>
+      <c r="O73" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>68</v>
       </c>
@@ -5362,9 +5593,12 @@
       <c r="M74" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="N74" s="22"/>
-    </row>
-    <row r="75" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N74" s="11"/>
+      <c r="O74" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>69</v>
       </c>
@@ -5400,9 +5634,12 @@
       <c r="M75" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="N75" s="22"/>
-    </row>
-    <row r="76" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N75" s="11"/>
+      <c r="O75" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>70</v>
       </c>
@@ -5438,9 +5675,12 @@
       <c r="M76" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="N76" s="22"/>
-    </row>
-    <row r="77" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N76" s="11"/>
+      <c r="O76" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>71</v>
       </c>
@@ -5476,9 +5716,12 @@
       <c r="M77" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="N77" s="22"/>
-    </row>
-    <row r="78" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N77" s="11"/>
+      <c r="O77" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>72</v>
       </c>
@@ -5509,14 +5752,17 @@
         <v>47</v>
       </c>
       <c r="L78" s="8" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="M78" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="N78" s="22"/>
-    </row>
-    <row r="79" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N78" s="11"/>
+      <c r="O78" s="8" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>73</v>
       </c>
@@ -5552,9 +5798,12 @@
       <c r="M79" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="N79" s="22"/>
-    </row>
-    <row r="80" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N79" s="11"/>
+      <c r="O79" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>74</v>
       </c>
@@ -5590,9 +5839,12 @@
       <c r="M80" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="N80" s="22"/>
-    </row>
-    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N80" s="11"/>
+      <c r="O80" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>75</v>
       </c>
@@ -5630,9 +5882,12 @@
       <c r="M81" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="N81" s="22"/>
-    </row>
-    <row r="82" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N81" s="11"/>
+      <c r="O81" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>76</v>
       </c>
@@ -5668,9 +5923,12 @@
       <c r="M82" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="N82" s="22"/>
-    </row>
-    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N82" s="11"/>
+      <c r="O82" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>77</v>
       </c>
@@ -5708,9 +5966,12 @@
       <c r="M83" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="N83" s="22"/>
-    </row>
-    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N83" s="11"/>
+      <c r="O83" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>78</v>
       </c>
@@ -5746,9 +6007,12 @@
       <c r="M84" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="N84" s="22"/>
-    </row>
-    <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N84" s="11"/>
+      <c r="O84" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>79</v>
       </c>
@@ -5784,9 +6048,12 @@
       <c r="M85" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="N85" s="22"/>
-    </row>
-    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N85" s="11"/>
+      <c r="O85" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>80</v>
       </c>
@@ -5820,9 +6087,12 @@
       <c r="M86" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="N86" s="22"/>
-    </row>
-    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N86" s="11"/>
+      <c r="O86" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>81</v>
       </c>
@@ -5858,9 +6128,12 @@
       <c r="M87" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="N87" s="22"/>
-    </row>
-    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N87" s="11"/>
+      <c r="O87" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>82</v>
       </c>
@@ -5898,9 +6171,12 @@
       <c r="M88" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="N88" s="22"/>
-    </row>
-    <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N88" s="11"/>
+      <c r="O88" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>83</v>
       </c>
@@ -5936,9 +6212,12 @@
       <c r="M89" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="N89" s="22"/>
-    </row>
-    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N89" s="11"/>
+      <c r="O89" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>84</v>
       </c>
@@ -5974,9 +6253,12 @@
       <c r="M90" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="N90" s="22"/>
-    </row>
-    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N90" s="11"/>
+      <c r="O90" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>85</v>
       </c>
@@ -6014,9 +6296,12 @@
       <c r="M91" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="N91" s="22"/>
-    </row>
-    <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N91" s="11"/>
+      <c r="O91" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>86</v>
       </c>
@@ -6054,9 +6339,12 @@
       <c r="M92" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="N92" s="22"/>
-    </row>
-    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N92" s="11"/>
+      <c r="O92" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>87</v>
       </c>
@@ -6092,9 +6380,12 @@
       <c r="M93" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="N93" s="22"/>
-    </row>
-    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N93" s="11"/>
+      <c r="O93" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>88</v>
       </c>
@@ -6130,9 +6421,12 @@
       <c r="M94" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="N94" s="22"/>
-    </row>
-    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N94" s="11"/>
+      <c r="O94" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>89</v>
       </c>
@@ -6168,9 +6462,12 @@
       <c r="M95" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="N95" s="22"/>
-    </row>
-    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N95" s="11"/>
+      <c r="O95" s="8" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>90</v>
       </c>
@@ -6206,9 +6503,12 @@
       <c r="M96" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="N96" s="22"/>
-    </row>
-    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N96" s="11"/>
+      <c r="O96" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>91</v>
       </c>
@@ -6244,9 +6544,12 @@
       <c r="M97" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="N97" s="22"/>
-    </row>
-    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N97" s="11"/>
+      <c r="O97" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>92</v>
       </c>
@@ -6282,9 +6585,12 @@
       <c r="M98" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="N98" s="22"/>
-    </row>
-    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N98" s="11"/>
+      <c r="O98" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>93</v>
       </c>
@@ -6320,9 +6626,12 @@
       <c r="M99" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="N99" s="22"/>
-    </row>
-    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N99" s="11"/>
+      <c r="O99" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>94</v>
       </c>
@@ -6358,9 +6667,12 @@
       <c r="M100" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="N100" s="22"/>
-    </row>
-    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N100" s="11"/>
+      <c r="O100" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>95</v>
       </c>
@@ -6396,9 +6708,12 @@
       <c r="M101" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="N101" s="22"/>
-    </row>
-    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N101" s="11"/>
+      <c r="O101" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>96</v>
       </c>
@@ -6434,9 +6749,12 @@
       <c r="M102" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="N102" s="22"/>
-    </row>
-    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N102" s="11"/>
+      <c r="O102" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>97</v>
       </c>
@@ -6472,9 +6790,12 @@
       <c r="M103" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="N103" s="22"/>
-    </row>
-    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N103" s="11"/>
+      <c r="O103" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>98</v>
       </c>
@@ -6510,9 +6831,12 @@
       <c r="M104" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="N104" s="22"/>
-    </row>
-    <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N104" s="11"/>
+      <c r="O104" s="8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>99</v>
       </c>
@@ -6548,9 +6872,12 @@
       <c r="M105" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="N105" s="22"/>
-    </row>
-    <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N105" s="11"/>
+      <c r="O105" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>100</v>
       </c>
@@ -6586,9 +6913,12 @@
       <c r="M106" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="N106" s="22"/>
-    </row>
-    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N106" s="11"/>
+      <c r="O106" s="8" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>101</v>
       </c>
@@ -6618,15 +6948,18 @@
       <c r="K107" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L107" s="22" t="s">
+      <c r="L107" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="M107" s="22" t="s">
-        <v>365</v>
-      </c>
-      <c r="N107" s="22"/>
-    </row>
-    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M107" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="N107" s="11"/>
+      <c r="O107" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>102</v>
       </c>
@@ -6657,14 +6990,17 @@
         <v>58</v>
       </c>
       <c r="L108" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M108" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="M108" s="22" t="s">
-        <v>393</v>
-      </c>
-      <c r="N108" s="22"/>
-    </row>
-    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N108" s="11"/>
+      <c r="O108" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>103</v>
       </c>
@@ -6695,14 +7031,17 @@
         <v>19</v>
       </c>
       <c r="L109" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="N109" s="22"/>
-    </row>
-    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+      <c r="N109" s="11"/>
+      <c r="O109" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>104</v>
       </c>
@@ -6734,17 +7073,20 @@
       <c r="K110" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="L110" s="22" t="s">
+      <c r="L110" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="M110" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="M110" s="22" t="s">
-        <v>370</v>
-      </c>
-      <c r="N110" s="22" t="s">
+      <c r="N110" s="11" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O110" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>105</v>
       </c>
@@ -6778,11 +7120,14 @@
         <v>336</v>
       </c>
       <c r="M111" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="N111" s="22"/>
-    </row>
-    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>370</v>
+      </c>
+      <c r="N111" s="11"/>
+      <c r="O111" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>106</v>
       </c>
@@ -6815,14 +7160,17 @@
         <v>30</v>
       </c>
       <c r="L112" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M112" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N112" s="22"/>
-    </row>
-    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N112" s="11"/>
+      <c r="O112" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>107</v>
       </c>
@@ -6853,7 +7201,7 @@
         <v>23</v>
       </c>
       <c r="L113" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M113" s="7" t="s">
         <v>325</v>
@@ -6861,8 +7209,11 @@
       <c r="N113" s="7" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O113" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>108</v>
       </c>
@@ -6898,9 +7249,12 @@
       <c r="M114" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="N114" s="22"/>
-    </row>
-    <row r="115" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N114" s="11"/>
+      <c r="O114" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>109</v>
       </c>
@@ -6934,11 +7288,14 @@
         <v>318</v>
       </c>
       <c r="M115" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="N115" s="22"/>
-    </row>
-    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="N115" s="11"/>
+      <c r="O115" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>110</v>
       </c>
@@ -6969,14 +7326,17 @@
         <v>16</v>
       </c>
       <c r="L116" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M116" s="7" t="s">
         <v>400</v>
       </c>
       <c r="N116" s="7"/>
-    </row>
-    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O116" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>111</v>
       </c>
@@ -7009,12 +7369,15 @@
       <c r="L117" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="M117" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="N117" s="22"/>
-    </row>
-    <row r="118" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M117" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="N117" s="11"/>
+      <c r="O117" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>112</v>
       </c>
@@ -7045,14 +7408,17 @@
         <v>16</v>
       </c>
       <c r="L118" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="M118" s="22" t="s">
-        <v>395</v>
-      </c>
-      <c r="N118" s="22"/>
-    </row>
-    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+      <c r="M118" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="N118" s="11"/>
+      <c r="O118" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>113</v>
       </c>
@@ -7086,11 +7452,14 @@
         <v>324</v>
       </c>
       <c r="M119" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="N119" s="22"/>
-    </row>
-    <row r="120" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="N119" s="11"/>
+      <c r="O119" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>114</v>
       </c>
@@ -7123,14 +7492,17 @@
         <v>136</v>
       </c>
       <c r="L120" s="7" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M120" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="N120" s="22"/>
-    </row>
-    <row r="121" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="N120" s="11"/>
+      <c r="O120" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>115</v>
       </c>
@@ -7161,16 +7533,19 @@
         <v>100</v>
       </c>
       <c r="L121" s="7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M121" s="7" t="s">
         <v>316</v>
       </c>
       <c r="N121" s="7" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="O121" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>116</v>
       </c>
@@ -7201,14 +7576,17 @@
         <v>16</v>
       </c>
       <c r="L122" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="M122" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="M122" s="22" t="s">
-        <v>397</v>
-      </c>
-      <c r="N122" s="22"/>
-    </row>
-    <row r="123" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N122" s="11"/>
+      <c r="O122" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>117</v>
       </c>
@@ -7239,14 +7617,17 @@
         <v>47</v>
       </c>
       <c r="L123" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M123" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="N123" s="22"/>
-    </row>
-    <row r="124" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N123" s="11"/>
+      <c r="O123" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>118</v>
       </c>
@@ -7279,14 +7660,17 @@
         <v>136</v>
       </c>
       <c r="L124" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M124" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N124" s="22"/>
-    </row>
-    <row r="125" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N124" s="11"/>
+      <c r="O124" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>119</v>
       </c>
@@ -7320,11 +7704,14 @@
         <v>317</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="N125" s="22"/>
-    </row>
-    <row r="126" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="N125" s="11"/>
+      <c r="O125" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>120</v>
       </c>
@@ -7360,9 +7747,12 @@
       <c r="M126" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N126" s="22"/>
-    </row>
-    <row r="127" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N126" s="11"/>
+      <c r="O126" s="7" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>121</v>
       </c>
@@ -7393,14 +7783,17 @@
         <v>23</v>
       </c>
       <c r="L127" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M127" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N127" s="22"/>
-    </row>
-    <row r="128" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N127" s="11"/>
+      <c r="O127" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>122</v>
       </c>
@@ -7436,9 +7829,12 @@
       <c r="M128" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N128" s="22"/>
-    </row>
-    <row r="129" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N128" s="11"/>
+      <c r="O128" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>123</v>
       </c>
@@ -7474,9 +7870,12 @@
       <c r="M129" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N129" s="22"/>
-    </row>
-    <row r="130" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N129" s="11"/>
+      <c r="O129" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>124</v>
       </c>
@@ -7507,14 +7906,17 @@
         <v>30</v>
       </c>
       <c r="L130" s="7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M130" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="N130" s="22"/>
-    </row>
-    <row r="131" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N130" s="11"/>
+      <c r="O130" s="24" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>125</v>
       </c>
@@ -7550,9 +7952,12 @@
       <c r="M131" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N131" s="22"/>
-    </row>
-    <row r="132" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N131" s="11"/>
+      <c r="O131" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>126</v>
       </c>
@@ -7583,14 +7988,17 @@
         <v>30</v>
       </c>
       <c r="L132" s="7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M132" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N132" s="22"/>
-    </row>
-    <row r="133" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N132" s="11"/>
+      <c r="O132" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>127</v>
       </c>
@@ -7624,11 +8032,14 @@
         <v>324</v>
       </c>
       <c r="M133" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="N133" s="22"/>
-    </row>
-    <row r="134" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="N133" s="11"/>
+      <c r="O133" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>128</v>
       </c>
@@ -7664,9 +8075,12 @@
       <c r="M134" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="N134" s="22"/>
-    </row>
-    <row r="135" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N134" s="11"/>
+      <c r="O134" s="24" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>129</v>
       </c>
@@ -7697,14 +8111,17 @@
         <v>68</v>
       </c>
       <c r="L135" s="7" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M135" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="N135" s="22"/>
-    </row>
-    <row r="136" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N135" s="11"/>
+      <c r="O135" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>130</v>
       </c>
@@ -7735,14 +8152,17 @@
         <v>58</v>
       </c>
       <c r="L136" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M136" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="N136" s="22"/>
-    </row>
-    <row r="137" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N136" s="11"/>
+      <c r="O136" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>131</v>
       </c>
@@ -7776,11 +8196,14 @@
         <v>316</v>
       </c>
       <c r="M137" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="N137" s="22"/>
-    </row>
-    <row r="138" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="N137" s="11"/>
+      <c r="O137" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>132</v>
       </c>
@@ -7816,9 +8239,12 @@
       <c r="M138" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N138" s="22"/>
-    </row>
-    <row r="139" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N138" s="11"/>
+      <c r="O138" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>133</v>
       </c>
@@ -7854,9 +8280,12 @@
       <c r="M139" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N139" s="22"/>
-    </row>
-    <row r="140" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N139" s="11"/>
+      <c r="O139" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>134</v>
       </c>
@@ -7889,10 +8318,13 @@
       <c r="L140" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="M140" s="22"/>
-      <c r="N140" s="22"/>
-    </row>
-    <row r="141" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>135</v>
       </c>
@@ -7928,11 +8360,14 @@
         <v>327</v>
       </c>
       <c r="M141" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="N141" s="22"/>
-    </row>
-    <row r="142" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="N141" s="11"/>
+      <c r="O141" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>136</v>
       </c>
@@ -7970,9 +8405,12 @@
       <c r="M142" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="N142" s="22"/>
-    </row>
-    <row r="143" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N142" s="11"/>
+      <c r="O142" s="7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>137</v>
       </c>
@@ -8003,14 +8441,17 @@
         <v>34</v>
       </c>
       <c r="L143" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M143" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="N143" s="22"/>
-    </row>
-    <row r="144" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="N143" s="11"/>
+      <c r="O143" s="7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>138</v>
       </c>
@@ -8046,9 +8487,12 @@
       <c r="M144" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="N144" s="22"/>
-    </row>
-    <row r="145" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N144" s="11"/>
+      <c r="O144" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>139</v>
       </c>
@@ -8079,14 +8523,17 @@
         <v>19</v>
       </c>
       <c r="L145" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M145" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="N145" s="22"/>
-    </row>
-    <row r="146" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N145" s="11"/>
+      <c r="O145" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>140</v>
       </c>
@@ -8117,14 +8564,17 @@
         <v>122</v>
       </c>
       <c r="L146" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M146" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="N146" s="22"/>
-    </row>
-    <row r="147" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+      <c r="N146" s="11"/>
+      <c r="O146" s="7" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>141</v>
       </c>
@@ -8155,14 +8605,16 @@
         <v>16</v>
       </c>
       <c r="L147" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M147" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="N147" s="22"/>
-    </row>
-    <row r="148" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O147" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>142</v>
       </c>
@@ -8193,14 +8645,17 @@
         <v>47</v>
       </c>
       <c r="L148" s="7" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="M148" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N148" s="22"/>
-    </row>
-    <row r="149" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N148" s="11"/>
+      <c r="O148" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>143</v>
       </c>
@@ -8236,9 +8691,12 @@
       <c r="M149" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="N149" s="22"/>
-    </row>
-    <row r="150" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N149" s="11"/>
+      <c r="O149" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>144</v>
       </c>
@@ -8269,12 +8727,15 @@
         <v>58</v>
       </c>
       <c r="L150" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="M150" s="22"/>
-      <c r="N150" s="22"/>
-    </row>
-    <row r="151" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>145</v>
       </c>
@@ -8305,14 +8766,17 @@
         <v>16</v>
       </c>
       <c r="L151" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M151" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="N151" s="22"/>
-    </row>
-    <row r="152" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N151" s="11"/>
+      <c r="O151" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>146</v>
       </c>
@@ -8348,9 +8812,12 @@
       <c r="M152" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N152" s="22"/>
-    </row>
-    <row r="153" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N152" s="11"/>
+      <c r="O152" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>147</v>
       </c>
@@ -8386,9 +8853,12 @@
       <c r="M153" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N153" s="22"/>
-    </row>
-    <row r="154" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N153" s="11"/>
+      <c r="O153" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>148</v>
       </c>
@@ -8424,9 +8894,12 @@
       <c r="M154" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="N154" s="22"/>
-    </row>
-    <row r="155" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N154" s="11"/>
+      <c r="O154" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>149</v>
       </c>
@@ -8457,14 +8930,17 @@
         <v>196</v>
       </c>
       <c r="L155" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M155" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="N155" s="22"/>
-    </row>
-    <row r="156" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N155" s="11"/>
+      <c r="O155" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>150</v>
       </c>
@@ -8500,9 +8976,12 @@
       <c r="M156" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="N156" s="22"/>
-    </row>
-    <row r="157" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N156" s="11"/>
+      <c r="O156" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>151</v>
       </c>
@@ -8534,15 +9013,18 @@
       <c r="K157" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="L157" s="22" t="s">
+      <c r="L157" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M157" s="20" t="s">
+      <c r="M157" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="N157" s="22"/>
-    </row>
-    <row r="158" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N157" s="11"/>
+      <c r="O157" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>152</v>
       </c>
@@ -8578,9 +9060,12 @@
       <c r="M158" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="N158" s="22"/>
-    </row>
-    <row r="159" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N158" s="11"/>
+      <c r="O158" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>153</v>
       </c>
@@ -8616,9 +9101,12 @@
       <c r="M159" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="N159" s="22"/>
-    </row>
-    <row r="160" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N159" s="11"/>
+      <c r="O159" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>154</v>
       </c>
@@ -8648,15 +9136,18 @@
       <c r="K160" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L160" s="22" t="s">
+      <c r="L160" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="M160" s="20" t="s">
+      <c r="M160" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="N160" s="22"/>
-    </row>
-    <row r="161" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N160" s="11"/>
+      <c r="O160" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>155</v>
       </c>
@@ -8686,15 +9177,18 @@
       <c r="K161" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L161" s="22" t="s">
+      <c r="L161" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="M161" s="20" t="s">
+      <c r="M161" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="N161" s="22"/>
-    </row>
-    <row r="162" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N161" s="11"/>
+      <c r="O161" s="24" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>156</v>
       </c>
@@ -8726,15 +9220,18 @@
       <c r="K162" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L162" s="22" t="s">
+      <c r="L162" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="M162" s="20" t="s">
+      <c r="M162" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="N162" s="22"/>
-    </row>
-    <row r="163" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N162" s="11"/>
+      <c r="O162" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>157</v>
       </c>
@@ -8764,15 +9261,18 @@
       <c r="K163" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="L163" s="22" t="s">
+      <c r="L163" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="M163" s="20" t="s">
+      <c r="M163" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="N163" s="22"/>
-    </row>
-    <row r="164" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N163" s="11"/>
+      <c r="O163" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>158</v>
       </c>
@@ -8802,15 +9302,18 @@
       <c r="K164" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L164" s="22" t="s">
+      <c r="L164" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="M164" s="20" t="s">
+      <c r="M164" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="N164" s="22"/>
-    </row>
-    <row r="165" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N164" s="11"/>
+      <c r="O164" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>159</v>
       </c>
@@ -8840,15 +9343,18 @@
       <c r="K165" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="L165" s="22" t="s">
+      <c r="L165" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="M165" s="20" t="s">
+      <c r="M165" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="N165" s="22"/>
-    </row>
-    <row r="166" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N165" s="11"/>
+      <c r="O165" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>160</v>
       </c>
@@ -8880,15 +9386,18 @@
       <c r="K166" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L166" s="22" t="s">
+      <c r="L166" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="M166" s="20" t="s">
+      <c r="M166" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="N166" s="22"/>
-    </row>
-    <row r="167" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N166" s="11"/>
+      <c r="O166" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>161</v>
       </c>
@@ -8918,15 +9427,18 @@
       <c r="K167" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L167" s="22" t="s">
+      <c r="L167" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="M167" s="20" t="s">
+      <c r="M167" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="N167" s="22"/>
-    </row>
-    <row r="168" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N167" s="11"/>
+      <c r="O167" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>162</v>
       </c>
@@ -8956,15 +9468,18 @@
       <c r="K168" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="L168" s="22" t="s">
+      <c r="L168" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="M168" s="20" t="s">
+      <c r="M168" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="N168" s="22"/>
-    </row>
-    <row r="169" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N168" s="11"/>
+      <c r="O168" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>163</v>
       </c>
@@ -8994,15 +9509,18 @@
       <c r="K169" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L169" s="22" t="s">
+      <c r="L169" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="M169" s="20" t="s">
+      <c r="M169" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="N169" s="22"/>
-    </row>
-    <row r="170" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N169" s="11"/>
+      <c r="O169" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>164</v>
       </c>
@@ -9032,15 +9550,18 @@
       <c r="K170" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="L170" s="22" t="s">
+      <c r="L170" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="M170" s="20" t="s">
+      <c r="M170" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="N170" s="22"/>
-    </row>
-    <row r="171" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N170" s="11"/>
+      <c r="O170" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>165</v>
       </c>
@@ -9070,15 +9591,18 @@
       <c r="K171" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L171" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="M171" s="20" t="s">
+      <c r="L171" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="M171" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="N171" s="22"/>
-    </row>
-    <row r="172" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N171" s="11"/>
+      <c r="O171" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>166</v>
       </c>
@@ -9110,13 +9634,16 @@
       <c r="K172" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L172" s="22" t="s">
+      <c r="L172" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="M172" s="20"/>
-      <c r="N172" s="22"/>
-    </row>
-    <row r="173" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M172" s="9"/>
+      <c r="N172" s="11"/>
+      <c r="O172" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>167</v>
       </c>
@@ -9146,15 +9673,18 @@
       <c r="K173" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L173" s="22" t="s">
+      <c r="L173" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="M173" s="20" t="s">
-        <v>390</v>
-      </c>
-      <c r="N173" s="22"/>
-    </row>
-    <row r="174" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M173" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="N173" s="11"/>
+      <c r="O173" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>168</v>
       </c>
@@ -9184,15 +9714,18 @@
       <c r="K174" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L174" s="22" t="s">
+      <c r="L174" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="M174" s="20" t="s">
+      <c r="M174" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="N174" s="22"/>
-    </row>
-    <row r="175" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N174" s="11"/>
+      <c r="O174" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>169</v>
       </c>
@@ -9224,15 +9757,18 @@
       <c r="K175" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L175" s="22" t="s">
+      <c r="L175" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="M175" s="20" t="s">
+      <c r="M175" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="N175" s="22"/>
-    </row>
-    <row r="176" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N175" s="11"/>
+      <c r="O175" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>170</v>
       </c>
@@ -9262,15 +9798,18 @@
       <c r="K176" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L176" s="22" t="s">
+      <c r="L176" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="M176" s="20" t="s">
+      <c r="M176" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="N176" s="22"/>
-    </row>
-    <row r="177" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N176" s="11"/>
+      <c r="O176" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>171</v>
       </c>
@@ -9300,13 +9839,16 @@
       <c r="K177" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="L177" s="22" t="s">
+      <c r="L177" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M177" s="20"/>
-      <c r="N177" s="22"/>
-    </row>
-    <row r="178" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M177" s="9"/>
+      <c r="N177" s="11"/>
+      <c r="O177" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>172</v>
       </c>
@@ -9338,15 +9880,18 @@
       <c r="K178" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L178" s="22" t="s">
+      <c r="L178" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="M178" s="20" t="s">
+      <c r="M178" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="N178" s="22"/>
-    </row>
-    <row r="179" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N178" s="11"/>
+      <c r="O178" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>173</v>
       </c>
@@ -9376,15 +9921,18 @@
       <c r="K179" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L179" s="22" t="s">
+      <c r="L179" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="M179" s="20" t="s">
+      <c r="M179" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="N179" s="22"/>
-    </row>
-    <row r="180" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N179" s="11"/>
+      <c r="O179" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>174</v>
       </c>
@@ -9416,15 +9964,18 @@
       <c r="K180" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L180" s="22" t="s">
+      <c r="L180" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="M180" s="20" t="s">
+      <c r="M180" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="N180" s="22"/>
-    </row>
-    <row r="181" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N180" s="11"/>
+      <c r="O180" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>175</v>
       </c>
@@ -9454,15 +10005,18 @@
       <c r="K181" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L181" s="22" t="s">
+      <c r="L181" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="M181" s="20" t="s">
+      <c r="M181" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="N181" s="22"/>
-    </row>
-    <row r="182" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N181" s="11"/>
+      <c r="O181" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>176</v>
       </c>
@@ -9492,15 +10046,18 @@
       <c r="K182" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L182" s="22" t="s">
+      <c r="L182" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="M182" s="20" t="s">
+      <c r="M182" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="N182" s="22"/>
-    </row>
-    <row r="183" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N182" s="11"/>
+      <c r="O182" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>177</v>
       </c>
@@ -9530,15 +10087,18 @@
       <c r="K183" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L183" s="22" t="s">
+      <c r="L183" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="M183" s="20" t="s">
+      <c r="M183" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="N183" s="22"/>
-    </row>
-    <row r="184" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N183" s="11"/>
+      <c r="O183" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>178</v>
       </c>
@@ -9568,15 +10128,18 @@
       <c r="K184" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="L184" s="22" t="s">
+      <c r="L184" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="M184" s="20" t="s">
+      <c r="M184" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="N184" s="22"/>
-    </row>
-    <row r="185" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N184" s="11"/>
+      <c r="O184" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>179</v>
       </c>
@@ -9606,15 +10169,18 @@
       <c r="K185" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L185" s="22" t="s">
+      <c r="L185" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="M185" s="20" t="s">
+      <c r="M185" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="N185" s="22"/>
-    </row>
-    <row r="186" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N185" s="11"/>
+      <c r="O185" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>180</v>
       </c>
@@ -9644,15 +10210,18 @@
       <c r="K186" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="L186" s="22" t="s">
+      <c r="L186" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="M186" s="20" t="s">
+      <c r="M186" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="N186" s="22"/>
-    </row>
-    <row r="187" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N186" s="11"/>
+      <c r="O186" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>181</v>
       </c>
@@ -9682,15 +10251,18 @@
       <c r="K187" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L187" s="22" t="s">
+      <c r="L187" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="M187" s="20" t="s">
+      <c r="M187" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="N187" s="22"/>
-    </row>
-    <row r="188" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N187" s="11"/>
+      <c r="O187" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>182</v>
       </c>
@@ -9720,13 +10292,16 @@
       <c r="K188" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="L188" s="22" t="s">
+      <c r="L188" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="M188" s="20"/>
-      <c r="N188" s="22"/>
-    </row>
-    <row r="189" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M188" s="9"/>
+      <c r="N188" s="11"/>
+      <c r="O188" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>183</v>
       </c>
@@ -9756,15 +10331,18 @@
       <c r="K189" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L189" s="22" t="s">
+      <c r="L189" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="M189" s="20" t="s">
+      <c r="M189" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="N189" s="22"/>
-    </row>
-    <row r="190" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N189" s="11"/>
+      <c r="O189" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>184</v>
       </c>
@@ -9794,15 +10372,18 @@
       <c r="K190" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="L190" s="22" t="s">
+      <c r="L190" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="M190" s="20" t="s">
+      <c r="M190" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="N190" s="22"/>
-    </row>
-    <row r="191" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N190" s="11"/>
+      <c r="O190" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>185</v>
       </c>
@@ -9832,13 +10413,16 @@
       <c r="K191" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="L191" s="22" t="s">
+      <c r="L191" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="M191" s="20"/>
-      <c r="N191" s="22"/>
-    </row>
-    <row r="192" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M191" s="9"/>
+      <c r="N191" s="11"/>
+      <c r="O191" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>186</v>
       </c>
@@ -9868,15 +10452,18 @@
       <c r="K192" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="L192" s="22" t="s">
+      <c r="L192" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="M192" s="20" t="s">
+      <c r="M192" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="N192" s="22"/>
-    </row>
-    <row r="193" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N192" s="11"/>
+      <c r="O192" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>187</v>
       </c>
@@ -9906,15 +10493,18 @@
       <c r="K193" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="L193" s="22" t="s">
+      <c r="L193" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="M193" s="20" t="s">
+      <c r="M193" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="N193" s="22"/>
-    </row>
-    <row r="194" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N193" s="11"/>
+      <c r="O193" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>188</v>
       </c>
@@ -9944,15 +10534,18 @@
       <c r="K194" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="L194" s="22" t="s">
+      <c r="L194" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="M194" s="20" t="s">
+      <c r="M194" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="N194" s="22"/>
-    </row>
-    <row r="195" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N194" s="11"/>
+      <c r="O194" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>189</v>
       </c>
@@ -9984,15 +10577,18 @@
       <c r="K195" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L195" s="22" t="s">
+      <c r="L195" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="M195" s="20" t="s">
+      <c r="M195" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="N195" s="22"/>
-    </row>
-    <row r="196" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N195" s="11"/>
+      <c r="O195" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>190</v>
       </c>
@@ -10024,15 +10620,18 @@
       <c r="K196" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L196" s="22" t="s">
+      <c r="L196" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="M196" s="20" t="s">
+      <c r="M196" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="N196" s="22"/>
-    </row>
-    <row r="197" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N196" s="11"/>
+      <c r="O196" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>191</v>
       </c>
@@ -10062,15 +10661,18 @@
       <c r="K197" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L197" s="22" t="s">
+      <c r="L197" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="M197" s="20" t="s">
+      <c r="M197" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="N197" s="22"/>
-    </row>
-    <row r="198" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N197" s="11"/>
+      <c r="O197" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>192</v>
       </c>
@@ -10100,15 +10702,18 @@
       <c r="K198" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="L198" s="22" t="s">
+      <c r="L198" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="M198" s="20" t="s">
+      <c r="M198" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="N198" s="22"/>
-    </row>
-    <row r="199" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N198" s="11"/>
+      <c r="O198" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>193</v>
       </c>
@@ -10138,15 +10743,18 @@
       <c r="K199" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="L199" s="22" t="s">
+      <c r="L199" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="M199" s="20" t="s">
+      <c r="M199" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="N199" s="22"/>
-    </row>
-    <row r="200" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N199" s="11"/>
+      <c r="O199" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>194</v>
       </c>
@@ -10176,15 +10784,18 @@
       <c r="K200" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="L200" s="22" t="s">
+      <c r="L200" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="M200" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="N200" s="22"/>
-    </row>
-    <row r="201" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M200" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="N200" s="11"/>
+      <c r="O200" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="1">
         <v>195</v>
       </c>
@@ -10214,15 +10825,18 @@
       <c r="K201" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L201" s="22" t="s">
+      <c r="L201" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="M201" s="20" t="s">
+      <c r="M201" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="N201" s="22"/>
-    </row>
-    <row r="202" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N201" s="11"/>
+      <c r="O201" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="1">
         <v>196</v>
       </c>
@@ -10254,15 +10868,18 @@
       <c r="K202" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="L202" s="22" t="s">
+      <c r="L202" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="M202" s="20" t="s">
+      <c r="M202" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="N202" s="22"/>
-    </row>
-    <row r="203" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N202" s="11"/>
+      <c r="O202" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="1">
         <v>197</v>
       </c>
@@ -10292,15 +10909,18 @@
       <c r="K203" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="L203" s="22" t="s">
+      <c r="L203" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="M203" s="20" t="s">
+      <c r="M203" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="N203" s="22"/>
-    </row>
-    <row r="204" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N203" s="11"/>
+      <c r="O203" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="1">
         <v>198</v>
       </c>
@@ -10330,15 +10950,18 @@
       <c r="K204" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L204" s="22" t="s">
+      <c r="L204" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M204" s="20" t="s">
+      <c r="M204" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="N204" s="22"/>
-    </row>
-    <row r="205" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N204" s="11"/>
+      <c r="O204" s="11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="1">
         <v>199</v>
       </c>
@@ -10370,15 +10993,18 @@
       <c r="K205" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L205" s="22" t="s">
+      <c r="L205" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="M205" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="N205" s="22"/>
-    </row>
-    <row r="206" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M205" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="N205" s="11"/>
+      <c r="O205" s="7" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="1">
         <v>200</v>
       </c>
@@ -10410,13 +11036,16 @@
       <c r="K206" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L206" s="22" t="s">
+      <c r="L206" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="M206" s="20" t="s">
+      <c r="M206" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="N206" s="22"/>
+      <c r="N206" s="11"/>
+      <c r="O206" s="11" t="s">
+        <v>259</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="15">
